--- a/excel/class_notes/Data Validation in Excel.xlsx
+++ b/excel/class_notes/Data Validation in Excel.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25D87E-9D39-45D3-BD57-727A37DAC8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036B7822-1904-40AE-B80A-1581EBEF4A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F4D1C65A-5EE2-48E7-872E-E5509F29EF25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F4D1C65A-5EE2-48E7-872E-E5509F29EF25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>### Data Validation in Excel</t>
   </si>
@@ -296,13 +300,88 @@
   </si>
   <si>
     <t>Clothing</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>tere</t>
+  </si>
+  <si>
+    <t>ere</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fd.</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>ffd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Expense Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,13 +397,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,13 +439,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,6 +479,1196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data Validation in Excel.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$H$3:$H$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chair</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Laptop</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>T-Shirt</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C67F-4464-A939-9B2EF1F9C21C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2135138144"/>
+        <c:axId val="2135138624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2135138144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135138624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135138624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135138144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9074353-BB39-9F00-A988-A2B43A99FF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rahish" refreshedDate="45506.335328935187" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{F67BB93F-BD4E-45D9-BA6C-A3519BA33C41}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D4" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Laptop"/>
+        <s v="Chair"/>
+        <s v="T-Shirt"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="1000"/>
+    </cacheField>
+    <cacheField name="Quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="10" count="3">
+        <n v="2"/>
+        <n v="10"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <x v="0"/>
+    <n v="1000"/>
+    <x v="0"/>
+    <s v="Electronics"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50"/>
+    <x v="1"/>
+    <s v="Furniture"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20"/>
+    <x v="2"/>
+    <s v="Clothing"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5A6C8DC-6DDC-484F-96CE-2E70628F7840}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="H2:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,9 +1968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5250F59F-0DF1-468D-A101-8E34579BE4F2}">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -782,157 +2091,234 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="M67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -1113,21 +2499,30 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M54 M56:M1048576 M55" xr:uid="{BED997A5-793D-4B7E-9223-2D3D85618FC7}">
+      <formula1>OR(M:M="Yes",M:M="No")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC99BFD-9F0D-4AC6-8468-79A698079AE4}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1141,7 +2536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1154,8 +2549,14 @@
       <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -1168,8 +2569,14 @@
       <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1181,6 +2588,109 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1070</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398AD7E6-31C0-438A-9B4E-16309FD3F7F4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
